--- a/Timesheet 12-04.xlsx
+++ b/Timesheet 12-04.xlsx
@@ -413,6 +413,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
